--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3323688.948305287</v>
+        <v>3399218.617970092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8360792.641111803</v>
+        <v>8360792.641111802</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.0060880625481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>411.738511867946</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.982503320825935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>382.5694918709665</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>36.74365704764491</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94.65568569260694</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.52155958671058</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>146.4340874029173</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>17.1535709749197</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>71.41172425543471</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.8524658611804</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>78.21370159712957</v>
+        <v>162.6705139454669</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>24.76555618024622</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>85.39633870205162</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>147.1163355383938</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>141.3492082308202</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>22.2952820541178</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.75292574065804</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>145.9240357115932</v>
       </c>
       <c r="T25" t="n">
-        <v>75.64852740290426</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.6253046359316</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.89663767439117</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>134.8930561484708</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>220.1674819419266</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>137.7091085309215</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>62.56378259042233</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>60.16172393095747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>167.0264723185515</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>130.183590919492</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>180.020761888232</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5953869016536</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>37.75862782376885</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>106.2835578420354</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.355614100457611</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1146.060557799969</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="C2" t="n">
-        <v>1146.060557799969</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="D2" t="n">
-        <v>787.7948591932184</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>950.501164524571</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,10 +4418,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2319.042900707869</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2319.042900707869</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2319.042900707869</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2319.042900707869</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2161.2945281404</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2024.965617239048</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>625.3202087220412</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>625.3202087220412</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>625.3202087220412</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>625.3202087220412</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>2469.159540120205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.969123535386</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2605.005596450084</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2605.005596450084</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2273.942709106514</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1921.174053836399</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>1547.708295575319</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.568963599508</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781774</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5547855502705</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>627.60215634107</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>627.60215634107</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.20718194981</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.20718194981</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2494.20718194981</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2494.20718194981</v>
+        <v>2461.187584621679</v>
       </c>
       <c r="W8" t="n">
-        <v>2494.20718194981</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="X8" t="n">
-        <v>2494.20718194981</v>
+        <v>2108.418929351565</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.20718194981</v>
+        <v>2108.418929351565</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424005</v>
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.294895023096</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>409.294895023096</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>409.294895023096</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>409.294895023096</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.294895023096</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705858</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C13" t="n">
-        <v>245.1301850426789</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426789</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W13" t="n">
-        <v>674.7185717878251</v>
+        <v>874.927113122792</v>
       </c>
       <c r="X13" t="n">
-        <v>674.7185717878251</v>
+        <v>874.927113122792</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008255</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.6416303362487</v>
+        <v>441.5869961536295</v>
       </c>
       <c r="C16" t="n">
-        <v>355.6416303362487</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="D16" t="n">
-        <v>355.6416303362487</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>272.6508132257226</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1412.657342576032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1412.657342576032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1188.871927365538</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>899.7432885790962</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>645.0588003732094</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W16" t="n">
-        <v>355.6416303362487</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X16" t="n">
-        <v>355.6416303362487</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.6416303362487</v>
+        <v>623.2354609838692</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,46 +5506,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.87950510831</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014774</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294736</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744133</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.44453396283</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.850635690702</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="C19" t="n">
-        <v>858.9144527627952</v>
+        <v>824.3515998808206</v>
       </c>
       <c r="D19" t="n">
-        <v>708.7978133504595</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>560.8847197680664</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>413.994772270156</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>245.8194505899766</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1045.144179024351</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1045.144179024351</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>1045.144179024351</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>1045.144179024351</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.499100520942</v>
+        <v>824.3515998808206</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5780,22 +5782,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,7 +5831,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
@@ -5838,19 +5840,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1321.461721072713</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.4843764226425</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C22" t="n">
-        <v>395.5481934947356</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768801</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X22" t="n">
-        <v>615.7499579788628</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.4843764226425</v>
+        <v>715.2736218676863</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,49 +5974,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698953</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>523.8169520164282</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="C25" t="n">
-        <v>523.8169520164282</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164282</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164282</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4713.456557143996</v>
       </c>
       <c r="T25" t="n">
-        <v>1222.583606531127</v>
+        <v>4489.671141933502</v>
       </c>
       <c r="U25" t="n">
-        <v>933.4549677446853</v>
+        <v>4489.671141933502</v>
       </c>
       <c r="V25" t="n">
-        <v>933.4549677446853</v>
+        <v>4234.986653727616</v>
       </c>
       <c r="W25" t="n">
-        <v>933.4549677446853</v>
+        <v>3945.569483690655</v>
       </c>
       <c r="X25" t="n">
-        <v>705.4654168466679</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="Y25" t="n">
-        <v>705.4654168466679</v>
+        <v>3717.579932792637</v>
       </c>
     </row>
     <row r="26">
@@ -6203,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L27" t="n">
-        <v>3138.955990222747</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M27" t="n">
-        <v>3446.276123502708</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N27" t="n">
-        <v>3776.138751166741</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O27" t="n">
-        <v>4360.722674916368</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>3927.865363461246</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>4376.647493502794</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>4376.647493502794</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520348</v>
+        <v>4148.657942604777</v>
       </c>
       <c r="Y28" t="n">
-        <v>492.4609007520348</v>
+        <v>3927.865363461246</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6473,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3054.076152669715</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>3361.396285949676</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>3691.258913613709</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3774.220663094765</v>
+        <v>3743.324099770251</v>
       </c>
       <c r="C31" t="n">
-        <v>3774.220663094765</v>
+        <v>3743.324099770251</v>
       </c>
       <c r="D31" t="n">
-        <v>3774.220663094765</v>
+        <v>3607.068487499068</v>
       </c>
       <c r="E31" t="n">
-        <v>3774.220663094765</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596855</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
         <v>4411.546387431056</v>
@@ -6643,28 +6645,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929845</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U31" t="n">
-        <v>4438.543167028909</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V31" t="n">
-        <v>4183.858678823022</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="W31" t="n">
-        <v>4183.858678823022</v>
+        <v>3971.313650668268</v>
       </c>
       <c r="X31" t="n">
-        <v>3955.869127925005</v>
+        <v>3743.324099770251</v>
       </c>
       <c r="Y31" t="n">
-        <v>3955.869127925005</v>
+        <v>3743.324099770251</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,19 +6788,19 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3895.563459493836</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>3895.563459493836</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3895.563459493836</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3756.463349866643</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4525.994054365623</v>
+        <v>1211.935115357083</v>
       </c>
       <c r="V34" t="n">
-        <v>4525.994054365623</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W34" t="n">
-        <v>4525.994054365623</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X34" t="n">
-        <v>4298.004503467606</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y34" t="n">
-        <v>4077.211924324076</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256434</v>
@@ -7020,19 +7022,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977053</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3799.634725086985</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C37" t="n">
-        <v>3799.634725086985</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D37" t="n">
-        <v>3799.634725086985</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974907</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974907</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294727</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>4571.725934227849</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V37" t="n">
-        <v>4317.041446021963</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W37" t="n">
-        <v>4027.624275985002</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X37" t="n">
-        <v>3799.634725086985</v>
+        <v>730.0789098462609</v>
       </c>
       <c r="Y37" t="n">
-        <v>3799.634725086985</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3756.463349866642</v>
+        <v>4057.921255565389</v>
       </c>
       <c r="C40" t="n">
-        <v>3756.463349866642</v>
+        <v>3888.985072637482</v>
       </c>
       <c r="D40" t="n">
-        <v>3756.463349866642</v>
+        <v>3757.486495951126</v>
       </c>
       <c r="E40" t="n">
-        <v>3756.463349866642</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>4679.015419591835</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T40" t="n">
-        <v>4455.230004381341</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U40" t="n">
-        <v>4166.101365594899</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="V40" t="n">
-        <v>4166.101365594899</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="W40" t="n">
-        <v>4166.101365594899</v>
+        <v>4460.362299539159</v>
       </c>
       <c r="X40" t="n">
-        <v>3938.111814696882</v>
+        <v>4460.362299539159</v>
       </c>
       <c r="Y40" t="n">
-        <v>3938.111814696882</v>
+        <v>4239.569720395629</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805483</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822476</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028734</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823807</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514103</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465857</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372321</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M42" t="n">
-        <v>3436.0418410801</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744133</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.44453396283</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698577</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4006.046332499341</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="C43" t="n">
-        <v>4006.046332499341</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D43" t="n">
-        <v>4006.046332499341</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E43" t="n">
-        <v>4006.046332499341</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491669</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4260.730820705227</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V43" t="n">
-        <v>4006.046332499341</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W43" t="n">
-        <v>4006.046332499341</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X43" t="n">
-        <v>4006.046332499341</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y43" t="n">
-        <v>4006.046332499341</v>
+        <v>244.1070389581963</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,31 +7669,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3525.606699852204</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>3832.926833132165</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>4162.789460796198</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4442.329526014895</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.4500457733748</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C46" t="n">
-        <v>399.4500457733748</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>399.4500457733748</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>251.5369521909817</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>104.6470046930713</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7831,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227918</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V46" t="n">
-        <v>620.2426249169049</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W46" t="n">
-        <v>620.2426249169049</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X46" t="n">
-        <v>620.2426249169049</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.4500457733748</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>182.0340742867947</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9246,25 +9248,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>96.03744927814569</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>113.6026921294541</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622866</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714817</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>308.1251096272024</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>159.0121003135231</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>93.8867650799254</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,13 +11144,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>91.23759968302141</v>
       </c>
       <c r="M42" t="n">
-        <v>360.5026862907249</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11309,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627448</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11382,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>127.6461250100642</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.3709517549652</v>
+        <v>55.91413940662792</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.655491842685</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.56801370174118</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.7974928291423</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>144.8881441677572</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>157.5366981278195</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.8317276114367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>51.99677427201007</v>
       </c>
       <c r="T25" t="n">
-        <v>145.899033655485</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.20667554600567</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>192.2410056494368</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>13.72241686974158</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>66.0698704566507</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>8.724854115647673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>223.673569808155</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>86.27223871561171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>58.68318307048565</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>18.43188209872034</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.90004809537129</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.82566112127768</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>248.4787245748085</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>60.96326325659238</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>159.13795436292</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027171</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409897</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="J2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="L2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="M2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="L2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="N2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="O2" t="n">
         <v>684300.8545409903</v>
-      </c>
-      <c r="O2" t="n">
-        <v>684300.8545409905</v>
       </c>
       <c r="P2" t="n">
         <v>684300.8545409904</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.683391358004883e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26424,40 +26426,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230238</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230239</v>
-      </c>
       <c r="G4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230237</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230233</v>
-      </c>
       <c r="J4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685323</v>
+        <v>-128906.1859685324</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460123</v>
+        <v>461061.6932460121</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460123</v>
+        <v>461061.6932460126</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307565</v>
+        <v>37849.94656307463</v>
       </c>
       <c r="F6" t="n">
         <v>563009.9830399714</v>
@@ -26537,31 +26539,31 @@
         <v>563009.9830399714</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399717</v>
+        <v>563009.9830399712</v>
       </c>
       <c r="I6" t="n">
         <v>563009.9830399714</v>
       </c>
       <c r="J6" t="n">
-        <v>386586.7638473785</v>
+        <v>386586.7638473786</v>
       </c>
       <c r="K6" t="n">
+        <v>563009.9830399717</v>
+      </c>
+      <c r="L6" t="n">
+        <v>563009.9830399717</v>
+      </c>
+      <c r="M6" t="n">
+        <v>428208.9678061343</v>
+      </c>
+      <c r="N6" t="n">
+        <v>563009.9830399707</v>
+      </c>
+      <c r="O6" t="n">
         <v>563009.9830399714</v>
       </c>
-      <c r="L6" t="n">
-        <v>563009.9830399711</v>
-      </c>
-      <c r="M6" t="n">
-        <v>428208.9678061346</v>
-      </c>
-      <c r="N6" t="n">
-        <v>563009.9830399713</v>
-      </c>
-      <c r="O6" t="n">
-        <v>563009.9830399716</v>
-      </c>
       <c r="P6" t="n">
-        <v>563009.9830399714</v>
+        <v>563009.9830399717</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26771,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26823,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.7277536009325</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>2.045658152849001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>43.21745586771107</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>123.254417728535</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1643497925140878</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>179.7046633100129</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>53.95978732560542</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>186.7603146552672</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>27.98162540605421</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>310.5986874952152</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>77.20374876277765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>11.85718952785675</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="21">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35665,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>389.1274892183194</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>429.2320226761585</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36206,22 +36208,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>424.0270691799203</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36360,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966949</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>515.2286476848074</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>590.4888118683106</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>408.2698052695474</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37154,13 +37156,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>555.2356492667888</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315246</v>
@@ -37169,7 +37171,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>300.9801800114502</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37862,13 +37864,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>340.4953046390457</v>
       </c>
       <c r="M42" t="n">
-        <v>670.9270633411911</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
@@ -37877,7 +37879,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38102,7 +38104,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>334.7395399415888</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3399218.617970092</v>
+        <v>3392201.603078379</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8360792.641111802</v>
+        <v>8360792.641111803</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.988730008072</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.738511867946</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.982503320825935</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.5694918709665</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>2.056772995494561</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.52155958671058</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>152.3270803652575</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>17.1535709749197</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>7.634490799661966</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>213.8524658611804</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111316</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274064</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>162.6705139454669</v>
+        <v>165.7152661164606</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.76555618024622</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>141.3492082308202</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.2952820541178</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>145.9240357115932</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>101.5975477744923</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>75.13072173266754</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>59.89663767439117</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>134.8930561484708</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>62.56378259042233</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>167.0264723185515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130.183590919492</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>220.672338793813</v>
       </c>
       <c r="U43" t="n">
-        <v>37.75862782376885</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>106.2835578420354</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>957.4466652737744</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>957.4466652737744</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>957.4466652737744</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>957.4466652737744</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>950.501164524571</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1344.046505337896</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>2319.042900707869</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>2319.042900707869</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>2319.042900707869</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>2319.042900707869</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>2161.2945281404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>2024.965617239048</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>2469.159540120205</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
         <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2695.071542537925</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2441.309757176016</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2441.309757176016</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.909333753394</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>627.60215634107</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>627.60215634107</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V8" t="n">
-        <v>2461.187584621679</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.418929351565</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X8" t="n">
-        <v>2108.418929351565</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y8" t="n">
-        <v>2108.418929351565</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>230.6543889503775</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.65458868870988</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.65458868870988</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>61.65458868870988</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805453</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>901.6749225845916</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5229,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="W13" t="n">
-        <v>874.927113122792</v>
+        <v>874.6385818722727</v>
       </c>
       <c r="X13" t="n">
-        <v>874.927113122792</v>
+        <v>874.6385818722727</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.6134626728254</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>901.6749225845916</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.687808515591</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1943.227873734288</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.5869961536295</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>272.6508132257226</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273993</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X16" t="n">
-        <v>844.0280401273993</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>623.2354609838692</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1045.144179024351</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1045.144179024351</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.144179024351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.144179024351</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5767,13 +5767,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5782,19 +5782,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>1164.055751909234</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>936.0662010112164</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>715.2736218676863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3717.579932792637</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C25" t="n">
-        <v>3717.579932792637</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D25" t="n">
-        <v>3717.579932792637</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>3717.579932792637</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4713.456557143996</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4489.671141933502</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>4489.671141933502</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="V25" t="n">
-        <v>4234.986653727616</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="W25" t="n">
-        <v>3945.569483690655</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="X25" t="n">
-        <v>3717.579932792637</v>
+        <v>1285.217381488927</v>
       </c>
       <c r="Y25" t="n">
-        <v>3717.579932792637</v>
+        <v>1064.424802345397</v>
       </c>
     </row>
     <row r="26">
@@ -6211,7 +6211,7 @@
         <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>380.9740019042123</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>627.7391298106763</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3927.865363461246</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="C28" t="n">
-        <v>3927.865363461246</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="D28" t="n">
-        <v>3777.748724048911</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>323.5247178241279</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4376.647493502794</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>4376.647493502794</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X28" t="n">
-        <v>4148.657942604777</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y28" t="n">
-        <v>3927.865363461246</v>
+        <v>492.4609007520348</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,19 +6475,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>3971.313650668268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>3743.324099770251</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U34" t="n">
-        <v>1211.935115357083</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>957.2506271511957</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>667.8334571142351</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>667.8334571142351</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.040877970705</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,64 +6925,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>898.7925182488382</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>898.7925182488382</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>730.0789098462609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465302</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2227.840212610279</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4057.921255565389</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3888.985072637482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576119</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576119</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4749.779469576119</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4749.779469576119</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4460.362299539159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4460.362299539159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4239.569720395629</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805483</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822476</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028734</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823807</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514103</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,28 +7435,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>244.1070389581963</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581963</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1276.01491824092</v>
       </c>
       <c r="U43" t="n">
-        <v>1236.990827242591</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="V43" t="n">
-        <v>982.3063390367042</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="W43" t="n">
-        <v>692.8891689997437</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X43" t="n">
-        <v>464.8996181017263</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y43" t="n">
-        <v>244.1070389581963</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488382</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>644.1080300429513</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>354.6908600059907</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.6908600059907</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863242</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714833</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>182.0340742867947</v>
+        <v>124.3400780863242</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>308.1251096272034</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>94.13752431970605</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>272.8719470256806</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>93.8867650799254</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.91413940662792</v>
+        <v>52.86938723563424</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>120.655491842685</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>144.8881441677572</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>157.5366981278195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>51.99677427201007</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>184.6398046240851</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>91.36284673071005</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>192.2410056494368</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>13.72241686974158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>223.673569808155</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>58.68318307048565</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>18.43188209872034</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,19 +25839,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.8752222645762231</v>
       </c>
       <c r="U43" t="n">
-        <v>248.4787245748085</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>60.96326325659238</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409897</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="H2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409902</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409903</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="M2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="N2" t="n">
         <v>684300.8545409904</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="M2" t="n">
-        <v>684300.8545409904</v>
-      </c>
-      <c r="N2" t="n">
-        <v>684300.85454099</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.85454099</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>2.683391358004883e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230241</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="J4" t="n">
         <v>29303.54555230237</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-128906.1859685324</v>
+        <v>-128906.1859685325</v>
       </c>
       <c r="C6" t="n">
-        <v>461061.6932460121</v>
+        <v>461061.6932460123</v>
       </c>
       <c r="D6" t="n">
-        <v>461061.6932460126</v>
+        <v>461061.6932460119</v>
       </c>
       <c r="E6" t="n">
-        <v>37849.94656307463</v>
+        <v>36875.35530335386</v>
       </c>
       <c r="F6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.39178025</v>
       </c>
       <c r="G6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802488</v>
       </c>
       <c r="H6" t="n">
-        <v>563009.9830399712</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="I6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="J6" t="n">
-        <v>386586.7638473786</v>
+        <v>385612.1725876565</v>
       </c>
       <c r="K6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802495</v>
       </c>
       <c r="L6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802493</v>
       </c>
       <c r="M6" t="n">
-        <v>428208.9678061343</v>
+        <v>427234.3765464125</v>
       </c>
       <c r="N6" t="n">
-        <v>563009.9830399707</v>
+        <v>562035.3917802498</v>
       </c>
       <c r="O6" t="n">
-        <v>563009.9830399714</v>
+        <v>562035.3917802497</v>
       </c>
       <c r="P6" t="n">
-        <v>563009.9830399717</v>
+        <v>562035.3917802493</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26773,7 +26773,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>306.7451116554086</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.045658152849001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>43.21745586771107</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1643497925140878</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.3915473621632</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.7603146552672</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>64.12123999240029</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>310.5986874952152</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>37.56546838887503</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>11.85718952785675</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178488</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>389.1274892183194</v>
+        <v>331.4334930178488</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>515.2185245587281</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>515.2286476848074</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36612,13 +36612,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>244.7129629076453</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>555.2356492667888</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>300.9801800114502</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3392201.603078379</v>
+        <v>3397140.865927412</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.988730008072</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>117.591883978776</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.19273982886526</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>2.056772995494561</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>152.3270803652575</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>165.8778138350001</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.634490799661966</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>100.6215839152614</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.287249111316</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>89.15058872626284</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>165.7152661164606</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>101.5975477744923</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.85017494300117</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>75.13072173266754</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>24.32276211751105</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151917</v>
+        <v>221.9323490168575</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.672338793813</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1488.206397918725</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1129.940699311975</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>744.1524467137303</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,16 +4564,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.843293211287</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2509.665805525457</v>
       </c>
       <c r="T5" t="n">
-        <v>2695.071542537925</v>
+        <v>2291.03113849752</v>
       </c>
       <c r="U5" t="n">
-        <v>2441.309757176016</v>
+        <v>2037.269353135612</v>
       </c>
       <c r="V5" t="n">
-        <v>2441.309757176016</v>
+        <v>2037.269353135612</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.541101905902</v>
+        <v>1684.500697865498</v>
       </c>
       <c r="X5" t="n">
-        <v>1715.075343644822</v>
+        <v>1311.034939604418</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2312.077176120202</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2312.077176120202</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V8" t="n">
-        <v>1981.014288776631</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W8" t="n">
-        <v>1628.245633506517</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X8" t="n">
-        <v>1254.779875245437</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y8" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482878</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E10" t="n">
-        <v>377.5443364482878</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>230.6543889503775</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>61.65458868870988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>61.65458868870988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>61.65458868870988</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>597.0741015092871</v>
       </c>
     </row>
     <row r="11">
@@ -5020,52 +5020,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805453</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5080,10 +5080,10 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845916</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831245</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909233</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909233</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909233</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722727</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X13" t="n">
-        <v>874.6385818722727</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2494241788781</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845916</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831245</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706316</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>241.980548233671</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,10 +5700,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
         <v>869.3083006011506</v>
@@ -5715,10 +5715,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5737,43 +5737,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>882.7763375151577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>713.8401545872508</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1285.217381488927</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1285.217381488927</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>1285.217381488927</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1285.217381488927</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1064.424802345397</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>323.5247178241279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>720.4504516500522</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>492.4609007520348</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,40 +6949,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,13 +7025,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7259,16 +7259,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4452354807079</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1276.01491824092</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>986.8862794544777</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>986.8862794544777</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>986.8862794544777</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>986.8862794544777</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.0937003109476</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863242</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714833</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863242</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.68139145567446</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.86938723563424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338588</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>184.6398046240851</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>228.6728233935898</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>91.36284673071005</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.1112005290581</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338568</v>
+        <v>64.30500338171984</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8752222645762231</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712816.6064027172</v>
+        <v>712816.6064027173</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712816.6064027173</v>
+        <v>712816.6064027172</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312483</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312476</v>
-      </c>
       <c r="E2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409899</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="J2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>684300.8545409899</v>
       </c>
-      <c r="H2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="K2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="L2" t="n">
-        <v>684300.85454099</v>
-      </c>
       <c r="M2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409904</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409902</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230239</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230237</v>
-      </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-128906.1859685325</v>
       </c>
       <c r="C6" t="n">
+        <v>461061.6932460127</v>
+      </c>
+      <c r="D6" t="n">
         <v>461061.6932460123</v>
       </c>
-      <c r="D6" t="n">
-        <v>461061.6932460119</v>
-      </c>
       <c r="E6" t="n">
-        <v>36875.35530335386</v>
+        <v>37752.48743710289</v>
       </c>
       <c r="F6" t="n">
-        <v>562035.39178025</v>
+        <v>562912.523913999</v>
       </c>
       <c r="G6" t="n">
-        <v>562035.3917802488</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="H6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="I6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139991</v>
       </c>
       <c r="J6" t="n">
-        <v>385612.1725876565</v>
+        <v>386489.3047214061</v>
       </c>
       <c r="K6" t="n">
-        <v>562035.3917802495</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="L6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139989</v>
       </c>
       <c r="M6" t="n">
-        <v>427234.3765464125</v>
+        <v>428111.5086801621</v>
       </c>
       <c r="N6" t="n">
-        <v>562035.3917802498</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="O6" t="n">
-        <v>562035.3917802497</v>
+        <v>562912.5239139993</v>
       </c>
       <c r="P6" t="n">
-        <v>562035.3917802493</v>
+        <v>562912.5239139991</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306.7451116554086</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>289.2841617629355</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>43.28566274594647</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>214.3915473621632</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.12123999240029</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>85.34635367328923</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>37.56546838887503</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>117.9630694368334</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29286,7 +29286,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178488</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178488</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
